--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>636939.6054215115</v>
+        <v>640259.1516944162</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.0044347</v>
       </c>
     </row>
     <row r="9">
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>175.1455886079333</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>205.5178444382804</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,76 +893,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="W5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T5" t="n">
-        <v>21.16030022554292</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114.2571612494427</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V8" t="n">
-        <v>205.5178444382804</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,22 +1263,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>13.74034240511227</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
+        <v>8.311618392921636</v>
+      </c>
+      <c r="V9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>37.10634673358873</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,73 +1367,73 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>205.5178444382804</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>53.67472280927132</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>14.48693373137006</v>
       </c>
       <c r="V12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="13">
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>22.03399177268427</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1613,67 +1613,67 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H14" t="n">
+      <c r="Y14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R14" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>21.16030022554286</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>119.3420183708876</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.5178444382804</v>
+        <v>190.2360657079579</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>22.03399177268427</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1844,11 +1844,11 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
@@ -1856,16 +1856,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>9.737236172019017</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1895,13 +1895,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>42.70379017529822</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2087,22 +2087,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,28 +2123,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>54.82907102477792</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>121.8430658505937</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1.854229992460985</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>164.8304714084692</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2515,13 +2515,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,67 +2555,67 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>40.47627913313517</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>241.0142888776591</v>
@@ -2643,13 +2643,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>92.31192385075794</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>56.91690033700343</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2694,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,19 +2789,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2883,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>4.54792358629986</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2934,7 +2934,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3032,70 +3032,70 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,19 +3108,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>80.07345096074853</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,22 +3156,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>128.9764887865588</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3229,13 +3229,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3263,76 +3263,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="36">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>84.4730545048111</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3484,10 +3484,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3515,61 +3515,61 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3588,10 +3588,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.8246775480002</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C41" t="n">
-        <v>159.0801288120801</v>
-      </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="F41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>7.565027066663822</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>13.74034240511224</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>205.5178444382804</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="Y44" t="n">
         <v>205.5178444382804</v>
@@ -4053,25 +4053,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>43.53759146957696</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4107,16 +4107,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>186.3732331246961</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4337,10 +4337,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4358,22 +4358,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>236.1051990630351</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W2" t="n">
-        <v>236.1051990630351</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X2" t="n">
-        <v>236.1051990630351</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F3" t="n">
         <v>16.44142755506243</v>
@@ -4410,49 +4410,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N3" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>626.8294255367553</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>639.2227743377304</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U3" t="n">
-        <v>431.628992076841</v>
+        <v>370.5697677890668</v>
       </c>
       <c r="V3" t="n">
-        <v>224.0352098159517</v>
+        <v>370.5697677890668</v>
       </c>
       <c r="W3" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="X3" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4504,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4577,7 +4577,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4586,28 +4586,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W5" t="n">
         <v>431.628992076841</v>
       </c>
       <c r="X5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y5" t="n">
         <v>224.0352098159517</v>
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>499.0663215028962</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>324.6132922217692</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
         <v>16.44142755506243</v>
@@ -4647,16 +4647,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>423.3667595428576</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
         <v>570.0333416264414</v>
@@ -4671,25 +4671,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X6" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y6" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4741,34 +4741,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C8" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
         <v>16.44142755506243</v>
@@ -4808,7 +4808,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
         <v>379.753706324525</v>
@@ -4826,28 +4826,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="V8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y8" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.19556020784815</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4890,10 +4890,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
-        <v>639.4279001397708</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
         <v>639.4279001397708</v>
@@ -4911,22 +4911,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>808.192244010584</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>600.5984617496947</v>
+        <v>813.6758036188573</v>
       </c>
       <c r="V9" t="n">
-        <v>600.5984617496947</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="W9" t="n">
-        <v>393.0046794888054</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="X9" t="n">
-        <v>185.4108972279162</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="Y9" t="n">
-        <v>185.4108972279162</v>
+        <v>190.8944568361894</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4978,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>110.7436296931158</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
         <v>16.44142755506243</v>
@@ -5048,7 +5048,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5066,25 +5066,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5124,10 +5124,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N12" t="n">
         <v>435.9652341458732</v>
@@ -5142,25 +5142,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>767.8544860265849</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>594.4371414772538</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="U12" t="n">
+        <v>807.4381113577983</v>
+      </c>
+      <c r="V12" t="n">
+        <v>599.8443290969091</v>
+      </c>
+      <c r="W12" t="n">
         <v>392.2505468360198</v>
       </c>
-      <c r="U12" t="n">
+      <c r="X12" t="n">
         <v>392.2505468360198</v>
-      </c>
-      <c r="V12" t="n">
-        <v>184.6567645751305</v>
-      </c>
-      <c r="W12" t="n">
-        <v>184.6567645751305</v>
-      </c>
-      <c r="X12" t="n">
-        <v>184.6567645751305</v>
       </c>
       <c r="Y12" t="n">
         <v>184.6567645751305</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="C13" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="D13" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="E13" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="F13" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="G13" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="H13" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="I13" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="X13" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="Y13" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>639.2227743377304</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C14" t="n">
-        <v>639.2227743377304</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D14" t="n">
-        <v>639.2227743377304</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E14" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F14" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5297,31 +5297,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y14" t="n">
-        <v>639.2227743377304</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>392.7605727411911</v>
+        <v>461.6983986038031</v>
       </c>
       <c r="C15" t="n">
-        <v>392.7605727411911</v>
+        <v>461.6983986038031</v>
       </c>
       <c r="D15" t="n">
-        <v>392.7605727411911</v>
+        <v>461.6983986038031</v>
       </c>
       <c r="E15" t="n">
-        <v>392.7605727411911</v>
+        <v>302.4609435983476</v>
       </c>
       <c r="F15" t="n">
-        <v>246.2260147680761</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="G15" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
         <v>17.19556020784815</v>
@@ -5379,28 +5379,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>513.308066045118</v>
+        <v>629.9137356238712</v>
       </c>
       <c r="Y15" t="n">
-        <v>513.308066045118</v>
+        <v>629.9137356238712</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="C16" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="D16" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="E16" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="F16" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="G16" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="H16" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="I16" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="R16" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="S16" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="T16" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="U16" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="V16" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="W16" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="X16" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="Y16" t="n">
-        <v>61.19242108896862</v>
+        <v>133.2380658808762</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>241.7186438601369</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>29.11673520316123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23.90796037760316</v>
+        <v>385.8037236438013</v>
       </c>
       <c r="C18" t="n">
-        <v>23.90796037760316</v>
+        <v>211.3506943626743</v>
       </c>
       <c r="D18" t="n">
-        <v>23.90796037760316</v>
+        <v>62.41628470142305</v>
       </c>
       <c r="E18" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N18" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N18" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5616,28 +5616,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W18" t="n">
-        <v>23.90796037760316</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X18" t="n">
-        <v>23.90796037760316</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y18" t="n">
-        <v>23.90796037760316</v>
+        <v>554.0190606638694</v>
       </c>
     </row>
     <row r="19">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>284.1276524520142</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C20" t="n">
-        <v>284.1276524520142</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D20" t="n">
-        <v>284.1276524520142</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E20" t="n">
-        <v>284.1276524520142</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F20" t="n">
-        <v>40.6788758079141</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G20" t="n">
-        <v>40.6788758079141</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>527.5764290961142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>527.5764290961142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>284.1276524520142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W20" t="n">
-        <v>284.1276524520142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X20" t="n">
-        <v>284.1276524520142</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y20" t="n">
-        <v>284.1276524520142</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>142.3549469997013</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="C21" t="n">
-        <v>142.3549469997013</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>142.3549469997013</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,19 +5835,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5865,16 +5865,16 @@
         <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W21" t="n">
-        <v>518.4217842253022</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X21" t="n">
-        <v>310.5702840197694</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y21" t="n">
-        <v>310.5702840197694</v>
+        <v>75.41817578802664</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E23" t="n">
         <v>233.7108255783361</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6020,19 +6020,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>342.668582052591</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
         <v>19.28114311021272</v>
@@ -6069,13 +6069,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>962.1841959222918</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>962.1841959222918</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>962.1841959222918</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>962.1841959222918</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>962.1841959222918</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W24" t="n">
-        <v>718.7354192781918</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X24" t="n">
-        <v>510.883919072659</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y24" t="n">
-        <v>510.883919072659</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K25" t="n">
         <v>19.28114311021272</v>
@@ -6163,34 +6163,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>761.6974622895962</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>112.5255106362308</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>112.5255106362308</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6306,13 +6306,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
         <v>304.2053859195205</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
         <v>542.809531908403</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V27" t="n">
-        <v>259.0600686093459</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W27" t="n">
-        <v>259.0600686093459</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>259.0600686093459</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6406,7 +6406,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
         <v>19.28114311021272</v>
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6494,19 +6494,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>137.2441409110171</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="C30" t="n">
-        <v>137.2441409110171</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="D30" t="n">
-        <v>137.2441409110171</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="E30" t="n">
-        <v>137.2441409110171</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="F30" t="n">
-        <v>137.2441409110171</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="G30" t="n">
-        <v>137.2441409110171</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>23.87500531859642</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W30" t="n">
-        <v>345.004439675971</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X30" t="n">
-        <v>345.004439675971</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y30" t="n">
-        <v>137.2441409110171</v>
+        <v>76.77296163243852</v>
       </c>
     </row>
     <row r="31">
@@ -6643,19 +6643,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
         <v>829.5248650203655</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D32" t="n">
         <v>720.6083788665362</v>
       </c>
       <c r="E32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6743,7 +6743,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>168.215552771464</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="C33" t="n">
-        <v>168.215552771464</v>
+        <v>408.3352814746453</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>259.400871813394</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>100.1634168079385</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>100.1634168079385</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6786,16 +6786,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>833.7778739080516</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>631.5912792668177</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>403.3676610032067</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V33" t="n">
-        <v>168.215552771464</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W33" t="n">
-        <v>168.215552771464</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X33" t="n">
-        <v>168.215552771464</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y33" t="n">
-        <v>168.215552771464</v>
+        <v>582.7883107557723</v>
       </c>
     </row>
     <row r="34">
@@ -6877,10 +6877,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
         <v>19.28114311021272</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>279.0604900729671</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>104.6074607918401</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
         <v>19.28114311021272</v>
@@ -7023,43 +7023,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W36" t="n">
-        <v>862.8876260635219</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X36" t="n">
-        <v>655.0361258579891</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>447.2758270930352</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7196,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7257,16 +7257,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>928.8807135429593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>755.4633689936281</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>553.2767743523941</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U39" t="n">
-        <v>325.0531560887832</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V39" t="n">
-        <v>325.0531560887832</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W39" t="n">
-        <v>325.0531560887832</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X39" t="n">
-        <v>325.0531560887832</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7388,25 +7388,25 @@
         <v>604.3859801240053</v>
       </c>
       <c r="C41" t="n">
-        <v>443.6989813239244</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D41" t="n">
-        <v>443.6989813239244</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E41" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7418,10 +7418,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
         <v>822.0713777531216</v>
@@ -7454,7 +7454,7 @@
         <v>811.9797623848946</v>
       </c>
       <c r="Y41" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17.19556020784815</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C42" t="n">
         <v>17.19556020784815</v>
@@ -7497,13 +7497,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N42" t="n">
-        <v>752.1869855945927</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7524,16 +7524,16 @@
         <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="W42" t="n">
         <v>406.8838132313431</v>
       </c>
-      <c r="W42" t="n">
+      <c r="X42" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="Y42" t="n">
         <v>199.2900309704538</v>
-      </c>
-      <c r="X42" t="n">
-        <v>199.2900309704538</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>185.4108972279162</v>
       </c>
     </row>
     <row r="43">
@@ -7600,10 +7600,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
         <v>16.44142755506243</v>
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
         <v>224.0352098159517</v>
@@ -7667,31 +7667,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y44" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>653.8560407330535</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>653.8560407330535</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>504.9216310718023</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>345.6841760663468</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>199.1496180932317</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>60.41879267584724</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7731,16 +7731,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M45" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>548.724319600695</v>
       </c>
-      <c r="N45" t="n">
-        <v>752.1869855945927</v>
-      </c>
       <c r="O45" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
         <v>752.6768192397923</v>
@@ -7755,22 +7755,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>412.2910008509983</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W45" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X45" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="46">
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C46" t="n">
         <v>16.44142755506243</v>
@@ -7840,16 +7840,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
   </sheetData>
@@ -7985,13 +7985,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
@@ -8073,10 +8073,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>261.0929869123474</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8225,10 +8225,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8295,19 +8295,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O6" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8456,10 +8456,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8538,13 +8538,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>222.9614904056321</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8696,10 +8696,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8772,13 +8772,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -9243,19 +9243,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9483,13 +9483,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>233.2169876979182</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,7 +10434,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10671,10 +10671,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,19 +10905,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11066,13 +11066,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>231.2329957552695</v>
@@ -11145,16 +11145,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O42" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11388,10 +11388,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>143.091025904242</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22568,7 +22568,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>54.02502153750649</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748161</v>
       </c>
     </row>
     <row r="3">
@@ -22635,7 +22635,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22671,19 +22671,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>19.14461131358425</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>50.7957934730415</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>46.1771387226392</v>
@@ -22723,7 +22723,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22826,31 +22826,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>201.9355493385884</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,16 +22860,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52.27602240042459</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22911,25 +22911,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>218.1105251285669</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22966,7 +22966,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,19 +22981,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>117.0281136687963</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23033,7 +23033,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>234.2826201338976</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23066,28 +23066,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>296.6012590300472</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,10 +23097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23121,7 +23121,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23151,22 +23151,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>186.4243862897093</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>217.6297636880532</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23179,7 +23179,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>56.32934533914268</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23200,10 +23200,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,10 +23218,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>49.05569651810566</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>200.9102526910243</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23306,13 +23306,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,7 +23321,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
         <v>180.7200942177732</v>
@@ -23382,28 +23382,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>46.48311134337182</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>211.4544483496048</v>
       </c>
       <c r="V12" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23437,7 +23437,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>71.32518834398851</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,10 +23455,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23476,7 +23476,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>268.9647026937786</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23501,19 +23501,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>200.9102526910243</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,16 +23537,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>201.9355493385885</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23558,10 +23558,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>47.19116527897972</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23580,7 +23580,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23592,7 +23592,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23637,7 +23637,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>15.53691949551953</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23674,7 +23674,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>71.32518834398851</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,10 +23692,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>68.603747608882</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23732,10 +23732,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23744,16 +23744,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>2.2120531825935</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23783,13 +23783,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,16 +23808,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>114.9412902801027</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23829,10 +23829,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>85.5626750829564</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,25 +23856,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23975,22 +23975,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>318.2910467450428</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,28 +24011,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>329.2548215453339</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>117.8794279635378</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>35.80201460480724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24105,7 +24105,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24130,13 +24130,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24203,22 +24203,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G23" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24260,16 +24260,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24330,25 +24330,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>98.30360416018215</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>86.86451175245043</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24388,7 +24388,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24403,13 +24403,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,16 +24443,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,16 +24485,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>168.5437904531102</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>219.8305335069347</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24503,7 +24503,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>128.71681180081</v>
@@ -24531,13 +24531,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>19.92352038573853</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24567,13 +24567,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>43.24093381563971</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24582,13 +24582,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24646,10 +24646,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24677,19 +24677,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24734,7 +24734,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24746,7 +24746,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>173.9525530126115</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24771,13 +24771,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>80.42661682620709</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>84.84870926511522</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24807,13 +24807,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24822,7 +24822,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24920,19 +24920,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F32" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24996,19 +24996,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>57.2700662024621</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25044,22 +25044,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>42.70668231727902</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25117,13 +25117,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25163,10 +25163,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25211,16 +25211,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>183.9432522271564</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,13 +25230,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>62.97201105982765</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>70.35882518776062</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25287,19 +25287,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25372,10 +25372,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25403,10 +25403,10 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25436,7 +25436,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25445,7 +25445,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>188.9293852055442</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25476,10 +25476,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25515,28 +25515,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>65.33315660464294</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>170.2754303037659</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,22 +25625,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>206.1927629589275</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>210.9009519055691</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25649,7 +25649,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>158.9681565832035</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25764,7 +25764,7 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>191.9423533721921</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25840,13 +25840,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>201.7137242822432</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,7 +25874,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>209.7848930768546</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>198.7016825117765</v>
       </c>
       <c r="Y44" t="n">
         <v>180.7200942177732</v>
@@ -25941,25 +25941,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>68.69785276691951</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25995,16 +25995,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>46.42735402472914</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26080,7 +26080,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>441721.3971378089</v>
+        <v>441721.3971378091</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441721.3971378088</v>
+        <v>441721.3971378087</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465249.883087731</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>465249.883087731</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>465249.883087731</v>
+        <v>465249.8830877308</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>465249.883087731</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>441721.3971378089</v>
+        <v>441721.397137809</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>441721.3971378091</v>
+        <v>441721.3971378088</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26314,7 @@
         <v>110430.3492844521</v>
       </c>
       <c r="C2" t="n">
-        <v>110430.3492844522</v>
+        <v>110430.3492844521</v>
       </c>
       <c r="D2" t="n">
         <v>110430.3492844521</v>
@@ -26350,10 +26350,10 @@
         <v>116312.4707719327</v>
       </c>
       <c r="O2" t="n">
-        <v>110430.3492844522</v>
+        <v>110430.3492844521</v>
       </c>
       <c r="P2" t="n">
-        <v>110430.3492844522</v>
+        <v>110430.3492844521</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="C4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="D4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="E4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="F4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="G4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="P4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5107.945216904744</v>
+        <v>-4720.303798018394</v>
       </c>
       <c r="C6" t="n">
-        <v>63765.81136478512</v>
+        <v>64153.45278367146</v>
       </c>
       <c r="D6" t="n">
-        <v>63765.81136478511</v>
+        <v>64153.45278367146</v>
       </c>
       <c r="E6" t="n">
-        <v>97393.4113647851</v>
+        <v>97781.05278367145</v>
       </c>
       <c r="F6" t="n">
-        <v>97393.4113647851</v>
+        <v>97781.05278367142</v>
       </c>
       <c r="G6" t="n">
-        <v>91341.65336385666</v>
+        <v>91750.22653629996</v>
       </c>
       <c r="H6" t="n">
-        <v>101070.6963380238</v>
+        <v>101479.2695104671</v>
       </c>
       <c r="I6" t="n">
-        <v>101070.6963380238</v>
+        <v>101479.269510467</v>
       </c>
       <c r="J6" t="n">
-        <v>47298.18544781434</v>
+        <v>47706.75862025762</v>
       </c>
       <c r="K6" t="n">
-        <v>101070.6963380238</v>
+        <v>101479.269510467</v>
       </c>
       <c r="L6" t="n">
-        <v>101070.6963380238</v>
+        <v>101479.269510467</v>
       </c>
       <c r="M6" t="n">
-        <v>101070.6963380237</v>
+        <v>101479.269510467</v>
       </c>
       <c r="N6" t="n">
-        <v>101070.6963380237</v>
+        <v>101479.269510467</v>
       </c>
       <c r="O6" t="n">
-        <v>97393.41136478513</v>
+        <v>97781.05278367145</v>
       </c>
       <c r="P6" t="n">
-        <v>97393.41136478512</v>
+        <v>97781.05278367145</v>
       </c>
     </row>
   </sheetData>
@@ -34705,13 +34705,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
@@ -34793,10 +34793,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>127.1185794980172</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34945,10 +34945,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="O6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>148.1480627106907</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35176,10 +35176,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35258,13 +35258,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>91.61977832229879</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35416,10 +35416,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N11" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35492,13 +35492,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N12" t="n">
-        <v>91.61977832229879</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36203,13 +36203,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>91.0829537758999</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37786,13 +37786,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37865,16 +37865,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N42" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O42" t="n">
-        <v>70.5902951096252</v>
-      </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38108,10 +38108,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>0.494781459797586</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>640259.1516944162</v>
+        <v>641043.2976324449</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.0044347</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5243089.453004279</v>
+        <v>5243089.453004278</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V2" t="n">
         <v>205.5178444382804</v>
@@ -722,10 +724,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -786,22 +788,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>175.1455886079333</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>80.86228322859426</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856712</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>19.20171008547518</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>114.6969565630368</v>
       </c>
       <c r="U6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>14.69006202085835</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>205.5178444382804</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856712</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V8" t="n">
-        <v>31.1509994400877</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,25 +1217,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>13.85099374870555</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>8.311618392921636</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W9" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>37.10634673358873</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1388,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,10 +1451,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1503,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>14.48693373137006</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W12" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.5178444382804</v>
@@ -1540,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1549,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1610,25 +1612,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1692,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1707,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>190.2360657079579</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1780,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.55829564281238</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1841,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>21.85442600983729</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1862,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1920,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>42.70379017529822</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1986,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2056,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,73 +2083,73 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>40.47627913313517</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>54.82907102477792</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,19 +2171,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>55.12624084019041</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2278,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="23">
@@ -2315,73 +2317,73 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
+      <c r="X23" t="n">
         <v>212.2853856434421</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>90.50278177497624</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2445,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>164.8304714084692</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2500,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2515,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,14 +2566,14 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>3.265316057196634</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2679,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>56.91690033700343</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2700,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,19 +2836,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>100.8824071085284</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2855,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,28 +2873,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>45.02776816791432</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>56.91690033700354</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2925,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2971,10 +2973,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2989,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,17 +3037,17 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
@@ -3092,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y32" t="n">
         <v>241.0142888776591</v>
@@ -3105,22 +3107,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>80.07345096074853</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3323,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
@@ -3357,16 +3359,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>60.22092770013851</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,7 +3404,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3512,53 +3514,53 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>64.67263725582607</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>29.8892983910557</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3785,19 +3787,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7.565027066663822</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>46.54968785507688</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3873,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,50 +3991,50 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>205.5178444382804</v>
@@ -4059,19 +4061,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>48.32160706581265</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>43.53759146957696</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4135,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4361,19 +4363,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W2" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X2" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
         <v>16.44142755506243</v>
@@ -4410,22 +4412,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>232.5025681519757</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M3" t="n">
-        <v>232.5025681519757</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4434,25 +4436,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>370.5697677890668</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V3" t="n">
-        <v>370.5697677890668</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="W3" t="n">
-        <v>162.9759855281775</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="X3" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4504,10 +4506,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R4" t="n">
         <v>16.44142755506243</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
@@ -4577,7 +4579,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4589,28 +4591,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="V5" t="n">
-        <v>639.2227743377304</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W5" t="n">
-        <v>431.628992076841</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="X5" t="n">
-        <v>224.0352098159517</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="Y5" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="6">
@@ -4647,13 +4649,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
         <v>366.5706756325438</v>
@@ -4668,16 +4670,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>446.4674385625565</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U6" t="n">
-        <v>238.8736563016672</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V6" t="n">
         <v>224.0352098159517</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4747,28 +4749,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I8" t="n">
         <v>16.44142755506243</v>
@@ -4805,16 +4807,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4826,28 +4828,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>255.5008658160403</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>47.90708355515102</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X8" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>190.8944568361894</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>440.0245662111054</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>291.0901565498541</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>291.0901565498541</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>144.5555985767391</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4890,16 +4892,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4914,19 +4916,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>813.6758036188573</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>606.0820213579681</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>398.4882390970787</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X9" t="n">
-        <v>398.4882390970787</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.8944568361894</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>110.7436296931158</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C10" t="n">
-        <v>110.7436296931158</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D10" t="n">
-        <v>110.7436296931158</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E10" t="n">
-        <v>110.7436296931158</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F10" t="n">
-        <v>110.7436296931158</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G10" t="n">
-        <v>110.7436296931158</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H10" t="n">
-        <v>110.7436296931158</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="I10" t="n">
-        <v>110.7436296931158</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4981,31 +4983,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>110.7436296931158</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>110.7436296931158</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>110.7436296931158</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>110.7436296931158</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U10" t="n">
-        <v>110.7436296931158</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V10" t="n">
-        <v>110.7436296931158</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W10" t="n">
-        <v>110.7436296931158</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X10" t="n">
-        <v>110.7436296931158</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y10" t="n">
-        <v>110.7436296931158</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5048,7 +5050,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5066,25 +5068,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V11" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W11" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X11" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D12" t="n">
         <v>16.44142755506243</v>
@@ -5124,19 +5126,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>232.5025681519757</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
-        <v>232.5025681519757</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5151,19 +5153,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>807.4381113577983</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>599.8443290969091</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>392.2505468360198</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X12" t="n">
-        <v>392.2505468360198</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y12" t="n">
-        <v>184.6567645751305</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="C13" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="D13" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="E13" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="F13" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="G13" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H13" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="W13" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="X13" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.8838132313431</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C14" t="n">
-        <v>406.8838132313431</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="D14" t="n">
-        <v>406.8838132313431</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E14" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5285,43 +5287,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X14" t="n">
-        <v>614.4775954922324</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y14" t="n">
-        <v>406.8838132313431</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>461.6983986038031</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>461.6983986038031</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>461.6983986038031</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>302.4609435983476</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>155.9263856252326</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5364,10 +5366,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5379,28 +5381,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X15" t="n">
-        <v>629.9137356238712</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>629.9137356238712</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="C16" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="D16" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="E16" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="F16" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="G16" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="H16" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S16" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="T16" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="U16" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="V16" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="W16" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="X16" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>506.1786963984129</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C17" t="n">
-        <v>506.1786963984129</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E17" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5540,25 +5542,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U17" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V17" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W17" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X17" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y17" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>385.8037236438013</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>211.3506943626743</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D18" t="n">
-        <v>62.41628470142305</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5595,22 +5597,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5622,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>554.0190606638694</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>554.0190606638694</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5704,10 +5706,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C20" t="n">
-        <v>761.6974622895962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D20" t="n">
-        <v>761.6974622895962</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E20" t="n">
-        <v>518.2486856454962</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F20" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>75.41817578802664</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>213.6950400833451</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>74.96421466596061</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,13 +5840,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V21" t="n">
-        <v>526.7184526376595</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W21" t="n">
-        <v>283.2696759935595</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X21" t="n">
-        <v>75.41817578802664</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y21" t="n">
-        <v>75.41817578802664</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
         <v>19.28114311021272</v>
@@ -6026,13 +6028,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>193.7341723913397</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6069,13 +6071,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>360.2295980564601</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>193.7341723913397</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>193.7341723913397</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y24" t="n">
-        <v>193.7341723913397</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
         <v>19.28114311021272</v>
@@ -6163,34 +6165,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
         <v>262.7299197543128</v>
@@ -6212,10 +6214,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6251,7 +6253,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
         <v>749.627473042513</v>
@@ -6260,16 +6262,16 @@
         <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6309,13 +6311,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6327,25 +6329,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>906.5653369884105</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>906.5653369884105</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>906.5653369884105</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U27" t="n">
-        <v>678.3417187247995</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V27" t="n">
-        <v>678.3417187247995</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W27" t="n">
-        <v>434.8929420806995</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6409,25 +6411,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>700.6811714053606</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>76.77296163243852</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="C30" t="n">
-        <v>76.77296163243852</v>
+        <v>554.4520179977666</v>
       </c>
       <c r="D30" t="n">
-        <v>76.77296163243852</v>
+        <v>554.4520179977666</v>
       </c>
       <c r="E30" t="n">
-        <v>76.77296163243852</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F30" t="n">
-        <v>76.77296163243852</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6573,19 +6575,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>735.8335372470253</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>492.3847606029253</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X30" t="n">
-        <v>284.5332603973924</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y30" t="n">
-        <v>76.77296163243852</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R31" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S31" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6740,10 +6742,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>582.7883107557723</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>408.3352814746453</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>259.400871813394</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>100.1634168079385</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>100.1634168079385</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6780,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>790.6398109613051</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V33" t="n">
-        <v>790.6398109613051</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W33" t="n">
-        <v>790.6398109613051</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X33" t="n">
-        <v>582.7883107557723</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y33" t="n">
-        <v>582.7883107557723</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="34">
@@ -6880,10 +6882,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
         <v>19.28114311021272</v>
@@ -6971,7 +6973,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
         <v>506.1786963984129</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>705.7335281915883</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>470.5814199598456</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W36" t="n">
-        <v>227.1326433157456</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>284.5332603973924</v>
       </c>
     </row>
     <row r="37">
@@ -7126,13 +7128,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
         <v>19.28114311021272</v>
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>933.8659450146204</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>705.6423267510095</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V39" t="n">
-        <v>470.4902185192667</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W39" t="n">
-        <v>227.0414418751666</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C41" t="n">
-        <v>396.792197863116</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E41" t="n">
         <v>16.44142755506243</v>
@@ -7415,16 +7417,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7433,28 +7435,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T41" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U41" t="n">
-        <v>811.9797623848946</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V41" t="n">
-        <v>811.9797623848946</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W41" t="n">
-        <v>811.9797623848946</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X41" t="n">
-        <v>811.9797623848946</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y41" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>191.6485894889752</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C42" t="n">
-        <v>17.19556020784815</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D42" t="n">
         <v>17.19556020784815</v>
@@ -7491,22 +7493,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7521,19 +7523,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V42" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W42" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="V42" t="n">
+      <c r="X42" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="W42" t="n">
+      <c r="Y42" t="n">
         <v>406.8838132313431</v>
-      </c>
-      <c r="X42" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="43">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7658,40 +7660,40 @@
         <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W44" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X44" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>653.8560407330535</v>
+        <v>65.2511316619439</v>
       </c>
       <c r="C45" t="n">
-        <v>653.8560407330535</v>
+        <v>65.2511316619439</v>
       </c>
       <c r="D45" t="n">
-        <v>504.9216310718023</v>
+        <v>65.2511316619439</v>
       </c>
       <c r="E45" t="n">
-        <v>345.6841760663468</v>
+        <v>65.2511316619439</v>
       </c>
       <c r="F45" t="n">
-        <v>199.1496180932317</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>60.41879267584724</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7731,19 +7733,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>548.724319600695</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V45" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W45" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X45" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y45" t="n">
-        <v>822.0713777531216</v>
+        <v>233.4664686820119</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>230.174158102173</v>
+        <v>286.7024424905649</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8225,10 +8227,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8453,19 +8455,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8538,19 +8540,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,10 +8698,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8772,10 +8774,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>230.174158102173</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -8942,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,13 +9014,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9957,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,19 +10193,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,10 +11065,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M41" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N42" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11306,13 +11308,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O44" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11388,13 +11390,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>164.1205091169155</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22601,7 +22603,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V2" t="n">
         <v>122.2344140318545</v>
@@ -22610,10 +22612,10 @@
         <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.2178212748161</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22635,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22674,22 +22676,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>50.7957934730415</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>124.9107019748832</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786024</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,7 +22786,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22805,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,10 +22831,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>189.8183595007702</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22841,16 +22843,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -22908,19 +22910,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>85.4677721317848</v>
       </c>
       <c r="U6" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>218.1105251285669</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>46.1771387226392</v>
@@ -22966,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786024</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23033,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23066,19 +23068,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>296.6012590300472</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23103,25 +23105,25 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>123.4925234145051</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23154,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>217.6297636880532</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23194,7 +23196,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>147.3903175997337</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -23203,7 +23205,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,7 +23223,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>49.05569651810566</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23276,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23315,16 +23317,16 @@
         <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,10 +23339,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>100.148786383304</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23391,16 +23393,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>211.4544483496048</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>0.1648513390239543</v>
@@ -23428,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>145.9569875857745</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23437,7 +23439,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>268.9647026937786</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23498,13 +23500,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E14" t="n">
-        <v>200.9102526910243</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23513,10 +23515,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>213.8848386932009</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23558,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23580,13 +23582,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23595,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>112.7505148429297</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>15.53691949551953</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23668,13 +23670,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>140.1931807347553</v>
       </c>
       <c r="I16" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,10 +23694,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.603747608882</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23729,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>385.0216197318741</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23750,10 +23752,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>114.9412902801027</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23862,7 +23864,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23874,7 +23876,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23944,13 +23946,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,28 +23971,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24032,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>329.2548215453339</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>117.8794279635378</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24057,19 +24059,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>57.10920339630606</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,22 +24098,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24136,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24166,7 +24168,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183325</v>
       </c>
     </row>
     <row r="23">
@@ -24203,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24266,10 +24268,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,16 +24287,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>67.1422986804247</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24333,19 +24335,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>86.86451175245043</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24388,7 +24390,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24403,13 +24405,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24418,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,13 +24454,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24491,22 +24493,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>219.8305335069347</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24567,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>43.24093381563971</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24588,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24616,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24649,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24695,10 +24697,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>108.137662477717</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,28 +24761,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>112.6173122874866</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>80.42661682620709</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24813,19 +24815,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24859,10 +24861,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24877,13 +24879,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24923,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24980,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y32" t="n">
         <v>145.2236497783945</v>
@@ -24993,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>161.9526345551508</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>57.2700662024621</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25041,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25120,13 +25122,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25211,10 +25213,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
@@ -25245,16 +25247,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>77.12258946307213</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>70.35882518776062</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25290,7 +25292,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
@@ -25366,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25375,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25400,10 +25402,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25436,16 +25438,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25488,7 +25490,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>24.723995595589</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>170.2754303037659</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,13 +25630,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>210.9009519055691</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25673,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>158.9681565832035</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>100.8953777095619</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25761,7 +25763,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25865,7 +25867,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25877,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25919,7 +25921,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>198.7016825117765</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>180.7200942177732</v>
@@ -25947,19 +25949,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>96.74760532757122</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>68.69785276691951</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25992,13 +25994,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26010,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>441721.3971378089</v>
+        <v>441721.3971378088</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>441721.3971378088</v>
+        <v>441721.3971378089</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441721.3971378087</v>
+        <v>441721.3971378088</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441721.3971378089</v>
+        <v>441721.3971378088</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>441721.397137809</v>
+        <v>441721.3971378088</v>
       </c>
     </row>
     <row r="16">
@@ -26314,7 +26316,7 @@
         <v>110430.3492844521</v>
       </c>
       <c r="C2" t="n">
-        <v>110430.3492844521</v>
+        <v>110430.3492844522</v>
       </c>
       <c r="D2" t="n">
         <v>110430.3492844521</v>
@@ -26323,7 +26325,7 @@
         <v>110430.3492844521</v>
       </c>
       <c r="F2" t="n">
-        <v>110430.3492844521</v>
+        <v>110430.3492844522</v>
       </c>
       <c r="G2" t="n">
         <v>116312.4707719327</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4720.303798018394</v>
+        <v>-4720.303798018409</v>
       </c>
       <c r="C6" t="n">
-        <v>64153.45278367146</v>
+        <v>64153.45278367148</v>
       </c>
       <c r="D6" t="n">
-        <v>64153.45278367146</v>
+        <v>64153.45278367145</v>
       </c>
       <c r="E6" t="n">
-        <v>97781.05278367145</v>
+        <v>97781.05278367146</v>
       </c>
       <c r="F6" t="n">
-        <v>97781.05278367142</v>
+        <v>97781.05278367148</v>
       </c>
       <c r="G6" t="n">
-        <v>91750.22653629996</v>
+        <v>91750.22653629995</v>
       </c>
       <c r="H6" t="n">
-        <v>101479.2695104671</v>
+        <v>101479.269510467</v>
       </c>
       <c r="I6" t="n">
         <v>101479.269510467</v>
       </c>
       <c r="J6" t="n">
-        <v>47706.75862025762</v>
+        <v>47706.75862025761</v>
       </c>
       <c r="K6" t="n">
-        <v>101479.269510467</v>
+        <v>101479.2695104671</v>
       </c>
       <c r="L6" t="n">
         <v>101479.269510467</v>
       </c>
       <c r="M6" t="n">
-        <v>101479.269510467</v>
+        <v>101479.2695104671</v>
       </c>
       <c r="N6" t="n">
         <v>101479.269510467</v>
       </c>
       <c r="O6" t="n">
-        <v>97781.05278367145</v>
+        <v>97781.05278367146</v>
       </c>
       <c r="P6" t="n">
-        <v>97781.05278367145</v>
+        <v>97781.05278367146</v>
       </c>
     </row>
   </sheetData>
@@ -34778,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>91.61977832229879</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34945,10 +34947,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N6" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35173,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35258,19 +35260,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,10 +35418,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N11" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N11" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35492,10 +35494,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35655,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35662,7 +35664,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N15" t="n">
         <v>21.52426467247106</v>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35896,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N18" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36677,16 +36679,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,10 +37785,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M41" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>91.61977832229879</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -37877,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38026,13 +38028,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O44" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,7 +38101,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38108,13 +38110,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>21.52426467247106</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>641043.2976324449</v>
+        <v>536810.7993690018</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.0044347</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5243089.453004278</v>
+        <v>5243089.453004279</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="3">
@@ -800,10 +800,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
+        <v>80.86228322859426</v>
+      </c>
+      <c r="X3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X3" t="n">
-        <v>80.86228322859426</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="5">
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>19.20171008547518</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>114.6969565630368</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="H8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>31.15099944008764</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>13.85099374870555</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>21.16030022554286</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,10 +1451,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>13.74034240511224</v>
       </c>
     </row>
     <row r="13">
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1654,14 +1654,14 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T14" t="n">
-        <v>9.211010870930394</v>
-      </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1691,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>33.57505181659868</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>120.0500723064956</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>21.85442600983729</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2165,19 +2165,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>55.12624084019041</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>59.06278308719924</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,70 +2320,70 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="X23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>90.50278177497624</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2557,28 +2557,28 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>208.2638363878125</v>
       </c>
     </row>
     <row r="27">
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2730,46 +2730,46 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,16 +2806,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>100.8824071085284</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2873,28 +2873,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>45.02776816791432</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2927,16 +2927,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2973,10 +2973,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2991,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,31 +3028,31 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>190.3453970742849</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>34.66067414728066</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -3170,7 +3170,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>212.2853856434421</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>241.0142888776591</v>
@@ -3359,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>60.22092770013851</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,25 +3508,25 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,31 +3547,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3602,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>64.67263725582607</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V41" t="n">
-        <v>21.16030022554292</v>
-      </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>46.54968785507688</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="X42" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3976,20 +3976,20 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>9.211010870930394</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,19 +4021,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>48.32160706581265</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>36.6156848048709</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4146,58 +4146,58 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E2" t="n">
         <v>16.44142755506243</v>
@@ -4363,19 +4363,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X2" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="3">
@@ -4415,13 +4415,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>163.1080096386462</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
         <v>570.0333416264414</v>
@@ -4448,7 +4448,7 @@
         <v>305.7142837842288</v>
       </c>
       <c r="W3" t="n">
-        <v>98.12050152333947</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X3" t="n">
         <v>16.44142755506243</v>
@@ -4509,28 +4509,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
         <v>16.44142755506243</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
@@ -4573,10 +4573,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4588,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>651.2927635848137</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T5" t="n">
-        <v>651.2927635848137</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U5" t="n">
-        <v>651.2927635848137</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V5" t="n">
-        <v>651.2927635848137</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W5" t="n">
-        <v>651.2927635848137</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X5" t="n">
-        <v>651.2927635848137</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y5" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="6">
@@ -4649,13 +4649,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
         <v>366.5706756325438</v>
@@ -4670,22 +4670,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V6" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W6" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X6" t="n">
         <v>16.44142755506243</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4743,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C8" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D8" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E8" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F8" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
         <v>16.44142755506243</v>
@@ -4819,7 +4819,7 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4828,28 +4828,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>440.0245662111054</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>291.0901565498541</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>291.0901565498541</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>144.5555985767391</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4895,13 +4895,13 @@
         <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O9" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4916,19 +4916,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X9" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y9" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5050,7 +5050,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5062,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U11" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V11" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W11" t="n">
-        <v>199.2900309704538</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X11" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y11" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>238.668476211275</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C12" t="n">
-        <v>64.21544693014803</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5126,19 +5126,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5153,19 +5153,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y12" t="n">
-        <v>406.8838132313431</v>
+        <v>185.4108972279162</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5217,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>443.6989813239244</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="C14" t="n">
-        <v>443.6989813239244</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="D14" t="n">
-        <v>236.1051990630351</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E14" t="n">
-        <v>236.1051990630351</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="F14" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G14" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I14" t="n">
         <v>28.51141680214578</v>
@@ -5287,10 +5287,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
         <v>822.0713777531216</v>
@@ -5302,28 +5302,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T14" t="n">
-        <v>443.6989813239244</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U14" t="n">
-        <v>443.6989813239244</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V14" t="n">
-        <v>443.6989813239244</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W14" t="n">
-        <v>443.6989813239244</v>
+        <v>396.792197863116</v>
       </c>
       <c r="X14" t="n">
-        <v>443.6989813239244</v>
+        <v>396.792197863116</v>
       </c>
       <c r="Y14" t="n">
-        <v>443.6989813239244</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>50.35562130920252</v>
       </c>
       <c r="E15" t="n">
         <v>16.44142755506243</v>
@@ -5366,10 +5366,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
+        <v>345.2616536067974</v>
+      </c>
+      <c r="N15" t="n">
         <v>548.724319600695</v>
-      </c>
-      <c r="N15" t="n">
-        <v>570.0333416264414</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5381,28 +5381,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>137.7041268545529</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V15" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W15" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X15" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5454,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>752.9257720901863</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>752.9257720901863</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>752.9257720901863</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W17" t="n">
-        <v>752.9257720901863</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X17" t="n">
-        <v>752.9257720901863</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y17" t="n">
-        <v>752.9257720901863</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5597,22 +5597,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5624,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5706,10 +5706,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C20" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>360.2295980564601</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="C21" t="n">
-        <v>360.2295980564601</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D21" t="n">
-        <v>360.2295980564601</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E21" t="n">
-        <v>360.2295980564601</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F21" t="n">
-        <v>213.6950400833451</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>74.96421466596061</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5840,13 +5840,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>360.2295980564601</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>360.2295980564601</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W21" t="n">
-        <v>360.2295980564601</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="X21" t="n">
-        <v>360.2295980564601</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="Y21" t="n">
-        <v>360.2295980564601</v>
+        <v>473.9875657500345</v>
       </c>
     </row>
     <row r="22">
@@ -5928,31 +5928,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
         <v>19.28114311021272</v>
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6077,16 +6077,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6110,10 +6110,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>257.2326523711826</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>257.2326523711826</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
         <v>19.28114311021272</v>
@@ -6180,19 +6180,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6320,7 +6320,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6335,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>705.7335281915883</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>470.5814199598456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6417,19 +6417,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>475.3318284112885</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C29" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D29" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E29" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F29" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G29" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>700.6811714053606</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>475.3318284112885</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U29" t="n">
-        <v>475.3318284112885</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V29" t="n">
-        <v>475.3318284112885</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W29" t="n">
-        <v>475.3318284112885</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X29" t="n">
-        <v>475.3318284112885</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y29" t="n">
-        <v>475.3318284112885</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>728.9050472788936</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C30" t="n">
-        <v>554.4520179977666</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D30" t="n">
-        <v>554.4520179977666</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E30" t="n">
-        <v>508.9694238887622</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6554,13 +6554,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>487.8483949674443</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6575,19 +6575,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>728.9050472788936</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>728.9050472788936</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>728.9050472788936</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
         <v>19.28114311021272</v>
@@ -6639,34 +6639,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>929.0463735436861</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>929.0463735436861</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U33" t="n">
-        <v>259.0600686093459</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V33" t="n">
-        <v>23.90796037760316</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W33" t="n">
-        <v>23.90796037760316</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X33" t="n">
-        <v>23.90796037760316</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y33" t="n">
-        <v>23.90796037760316</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H34" t="n">
         <v>19.28114311021272</v>
@@ -6888,22 +6888,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6973,16 +6973,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>284.5332603973924</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>284.5332603973924</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>284.5332603973924</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>284.5332603973924</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>284.5332603973924</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7022,13 +7022,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V36" t="n">
-        <v>735.8335372470253</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W36" t="n">
-        <v>492.3847606029253</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X36" t="n">
-        <v>284.5332603973924</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y36" t="n">
-        <v>284.5332603973924</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7128,10 +7128,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>942.6594228129348</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>731.528039392485</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>84.60703932821886</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>84.60703932821886</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>84.60703932821886</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>84.60703932821886</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>84.60703932821886</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>84.60703932821886</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7265,40 +7265,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>259.0600686093459</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>259.0600686093459</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>259.0600686093459</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>259.0600686093459</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="40">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
         <v>19.28114311021272</v>
@@ -7371,13 +7371,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7417,16 +7417,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7438,25 +7438,25 @@
         <v>660.5968149695918</v>
       </c>
       <c r="S41" t="n">
+        <v>660.5968149695918</v>
+      </c>
+      <c r="T41" t="n">
         <v>453.0030327087026</v>
       </c>
-      <c r="T41" t="n">
+      <c r="U41" t="n">
+        <v>453.0030327087026</v>
+      </c>
+      <c r="V41" t="n">
         <v>245.4092504478133</v>
       </c>
-      <c r="U41" t="n">
-        <v>37.81546818692397</v>
-      </c>
-      <c r="V41" t="n">
-        <v>16.44142755506243</v>
-      </c>
       <c r="W41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="X41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7523,19 +7523,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>199.2900309704538</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7657,7 +7657,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
         <v>672.8764276104736</v>
@@ -7669,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U44" t="n">
-        <v>614.4775954922324</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V44" t="n">
-        <v>614.4775954922324</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W44" t="n">
-        <v>614.4775954922324</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X44" t="n">
-        <v>614.4775954922324</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y44" t="n">
-        <v>406.8838132313431</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>65.2511316619439</v>
+        <v>785.0858375461813</v>
       </c>
       <c r="C45" t="n">
-        <v>65.2511316619439</v>
+        <v>610.6328082650543</v>
       </c>
       <c r="D45" t="n">
-        <v>65.2511316619439</v>
+        <v>461.6983986038031</v>
       </c>
       <c r="E45" t="n">
-        <v>65.2511316619439</v>
+        <v>302.4609435983476</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7739,40 +7739,40 @@
         <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>785.0858375461813</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>785.0858375461813</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>785.0858375461813</v>
       </c>
       <c r="U45" t="n">
-        <v>441.0602509429012</v>
+        <v>785.0858375461813</v>
       </c>
       <c r="V45" t="n">
-        <v>441.0602509429012</v>
+        <v>785.0858375461813</v>
       </c>
       <c r="W45" t="n">
-        <v>441.0602509429012</v>
+        <v>785.0858375461813</v>
       </c>
       <c r="X45" t="n">
-        <v>441.0602509429012</v>
+        <v>785.0858375461813</v>
       </c>
       <c r="Y45" t="n">
-        <v>233.4664686820119</v>
+        <v>785.0858375461813</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -8063,16 +8063,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7024424905649</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8221,13 +8221,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>290.282096632709</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8467,10 +8467,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>256.3140754849514</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8543,16 +8543,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O9" t="n">
-        <v>143.091025904242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,10 +8698,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8774,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8935,13 +8935,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9014,13 +9014,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>244.7225752110828</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9968,10 +9968,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10202,16 +10202,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O30" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,16 +10670,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10913,16 +10913,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,19 +11065,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>201.9320071929585</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11305,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N44" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11387,16 +11387,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O45" t="n">
-        <v>213.1865395540696</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22555,7 +22555,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>200.9102526910243</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22603,19 +22603,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22688,10 +22688,10 @@
         <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>170.8326999323253</v>
       </c>
       <c r="X3" t="n">
-        <v>124.9107019748832</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22749,10 +22749,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22773,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="5">
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>189.8183595007702</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>198.7016825117765</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>85.4677721317848</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22968,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,19 +22983,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,7 +23029,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23038,10 +23038,10 @@
         <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23068,10 +23068,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>177.8690701461577</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>123.4925234145051</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23156,16 +23156,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23196,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>147.3903175997337</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23272,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23314,16 +23314,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23339,10 +23339,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>100.148786383304</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23393,19 +23393,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>191.9423533721921</v>
       </c>
     </row>
     <row r="13">
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>145.9569875857745</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>247.7959169296313</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23515,7 +23515,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>213.8848386932009</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23557,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23579,10 +23579,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>124.0700286388023</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>112.7505148429297</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23670,7 +23670,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>140.1931807347553</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
         <v>155.4504749272583</v>
@@ -23679,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>280.3956145707916</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>385.0216197318741</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23813,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23864,19 +23864,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23946,13 +23946,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>280.8531039918463</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23986,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24053,19 +24053,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>57.10920339630606</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24098,7 +24098,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24110,7 +24110,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>192.6322000737204</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24168,7 +24168,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
@@ -24183,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>88.11912650183325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,7 +24217,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24253,25 +24253,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>268.906261701593</v>
       </c>
       <c r="X23" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>137.4807660112426</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24293,10 +24293,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>67.1422986804247</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24420,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,19 +24454,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,13 +24496,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>177.9741022682411</v>
       </c>
     </row>
     <row r="27">
@@ -24536,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>108.2910995245859</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24575,7 +24575,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24657,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>157.0090553831951</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24694,16 +24694,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>108.137662477717</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24761,28 +24761,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>112.6173122874866</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>107.544508198328</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24815,16 +24815,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24861,10 +24861,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24879,10 +24879,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,22 +24925,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>195.8925415817687</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>161.9526345551508</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>65.49716000536247</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25092,7 +25092,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25165,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25213,13 +25213,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>136.9555830739709</v>
+        <v>347.4314726443769</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>145.2236497783945</v>
@@ -25247,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>77.12258946307213</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>142.630753465213</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25292,7 +25292,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
@@ -25368,13 +25368,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25396,25 +25396,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>149.1294050414824</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>137.4807660112426</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25490,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>24.723995595589</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>306.591958244592</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>340.0299578464826</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>100.8953777095619</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25763,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>372.7193592013314</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>96.74760532757122</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>63.54214934777224</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26012,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>441721.3971378088</v>
+        <v>441721.3971378089</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>441721.3971378091</v>
+        <v>441721.3971378089</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441721.3971378088</v>
+        <v>441721.3971378089</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877308</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.883087731</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>465249.8830877308</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>441721.3971378088</v>
+        <v>441721.3971378089</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>441721.3971378088</v>
+        <v>441721.3971378089</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>110430.3492844521</v>
       </c>
       <c r="C2" t="n">
-        <v>110430.3492844522</v>
+        <v>110430.3492844521</v>
       </c>
       <c r="D2" t="n">
         <v>110430.3492844521</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4720.303798018409</v>
+        <v>-17358.4659528789</v>
       </c>
       <c r="C6" t="n">
-        <v>64153.45278367148</v>
+        <v>51515.29062881096</v>
       </c>
       <c r="D6" t="n">
-        <v>64153.45278367145</v>
+        <v>51515.29062881096</v>
       </c>
       <c r="E6" t="n">
-        <v>97781.05278367146</v>
+        <v>85142.89062881094</v>
       </c>
       <c r="F6" t="n">
-        <v>97781.05278367148</v>
+        <v>85142.89062881097</v>
       </c>
       <c r="G6" t="n">
-        <v>91750.22653629995</v>
+        <v>79532.21591625946</v>
       </c>
       <c r="H6" t="n">
-        <v>101479.269510467</v>
+        <v>89261.25889042659</v>
       </c>
       <c r="I6" t="n">
-        <v>101479.269510467</v>
+        <v>89261.25889042659</v>
       </c>
       <c r="J6" t="n">
-        <v>47706.75862025761</v>
+        <v>35488.7480002172</v>
       </c>
       <c r="K6" t="n">
-        <v>101479.2695104671</v>
+        <v>89261.2588904266</v>
       </c>
       <c r="L6" t="n">
-        <v>101479.269510467</v>
+        <v>89261.25889042657</v>
       </c>
       <c r="M6" t="n">
-        <v>101479.2695104671</v>
+        <v>89261.25889042657</v>
       </c>
       <c r="N6" t="n">
-        <v>101479.269510467</v>
+        <v>89261.25889042656</v>
       </c>
       <c r="O6" t="n">
-        <v>97781.05278367146</v>
+        <v>85142.89062881094</v>
       </c>
       <c r="P6" t="n">
-        <v>97781.05278367146</v>
+        <v>85142.89062881096</v>
       </c>
     </row>
   </sheetData>
@@ -34783,16 +34783,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34941,13 +34941,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35187,10 +35187,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>26.21586406326473</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O9" t="n">
-        <v>0.494781459797586</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,10 +35418,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N11" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35494,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>21.52426467247106</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,13 +35655,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35734,13 +35734,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35892,13 +35892,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>113.3808631277494</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36688,10 +36688,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O30" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>226.4350751681936</v>
-      </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37554,7 +37554,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37633,16 +37633,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,19 +37785,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
+        <v>171.5974510766996</v>
+      </c>
+      <c r="N44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N44" t="n">
-        <v>171.5974510766996</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38107,16 +38107,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O45" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
